--- a/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>CEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,182 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15622100</v>
+        <v>17399700</v>
       </c>
       <c r="E8" s="3">
-        <v>17406100</v>
+        <v>15238800</v>
       </c>
       <c r="F8" s="3">
-        <v>15158500</v>
+        <v>17083800</v>
       </c>
       <c r="G8" s="3">
-        <v>13491100</v>
+        <v>14786600</v>
       </c>
       <c r="H8" s="3">
-        <v>13252100</v>
+        <v>13160200</v>
       </c>
       <c r="I8" s="3">
-        <v>11429300</v>
+        <v>12927000</v>
       </c>
       <c r="J8" s="3">
+        <v>11148900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9589100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12147100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13295900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19754300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3319800</v>
+        <v>4413100</v>
       </c>
       <c r="E9" s="3">
-        <v>5162600</v>
+        <v>3238400</v>
       </c>
       <c r="F9" s="3">
-        <v>3504800</v>
+        <v>5055100</v>
       </c>
       <c r="G9" s="3">
-        <v>3894500</v>
+        <v>3418800</v>
       </c>
       <c r="H9" s="3">
-        <v>3563600</v>
+        <v>3798900</v>
       </c>
       <c r="I9" s="3">
-        <v>3086100</v>
+        <v>3476200</v>
       </c>
       <c r="J9" s="3">
+        <v>3010400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2972900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3569900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3594000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7711700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12302300</v>
+        <v>12986600</v>
       </c>
       <c r="E10" s="3">
-        <v>12243600</v>
+        <v>12000500</v>
       </c>
       <c r="F10" s="3">
-        <v>11653700</v>
+        <v>12028700</v>
       </c>
       <c r="G10" s="3">
-        <v>9596700</v>
+        <v>11367800</v>
       </c>
       <c r="H10" s="3">
-        <v>9688500</v>
+        <v>9361200</v>
       </c>
       <c r="I10" s="3">
-        <v>8343200</v>
+        <v>9450800</v>
       </c>
       <c r="J10" s="3">
+        <v>8138500</v>
+      </c>
+      <c r="K10" s="3">
         <v>6616100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8577200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9701900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12042600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>895000</v>
+        <v>854300</v>
       </c>
       <c r="E12" s="3">
-        <v>1530100</v>
+        <v>873100</v>
       </c>
       <c r="F12" s="3">
-        <v>324300</v>
+        <v>1522100</v>
       </c>
       <c r="G12" s="3">
-        <v>603800</v>
+        <v>316300</v>
       </c>
       <c r="H12" s="3">
-        <v>383500</v>
+        <v>589000</v>
       </c>
       <c r="I12" s="3">
-        <v>565300</v>
+        <v>374100</v>
       </c>
       <c r="J12" s="3">
+        <v>551400</v>
+      </c>
+      <c r="K12" s="3">
         <v>490600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>804200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>665000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,78 +928,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-27000</v>
+        <v>319400</v>
       </c>
       <c r="E14" s="3">
-        <v>58500</v>
+        <v>-26300</v>
       </c>
       <c r="F14" s="3">
-        <v>22800</v>
+        <v>71000</v>
       </c>
       <c r="G14" s="3">
-        <v>1266200</v>
+        <v>22300</v>
       </c>
       <c r="H14" s="3">
-        <v>43800</v>
+        <v>1235100</v>
       </c>
       <c r="I14" s="3">
-        <v>260000</v>
+        <v>42700</v>
       </c>
       <c r="J14" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K14" s="3">
         <v>1486300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>202000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>205500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>599200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3786700</v>
+        <v>4381700</v>
       </c>
       <c r="E15" s="3">
-        <v>3360200</v>
+        <v>3693800</v>
       </c>
       <c r="F15" s="3">
-        <v>3905700</v>
+        <v>3305400</v>
       </c>
       <c r="G15" s="3">
-        <v>4223000</v>
+        <v>3809900</v>
       </c>
       <c r="H15" s="3">
-        <v>4566100</v>
+        <v>4119400</v>
       </c>
       <c r="I15" s="3">
-        <v>4846500</v>
+        <v>4454100</v>
       </c>
       <c r="J15" s="3">
+        <v>4727600</v>
+      </c>
+      <c r="K15" s="3">
         <v>5040300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5444000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5455100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4409400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9408000</v>
+        <v>11677400</v>
       </c>
       <c r="E17" s="3">
-        <v>11810300</v>
+        <v>9177200</v>
       </c>
       <c r="F17" s="3">
-        <v>9241700</v>
+        <v>11635300</v>
       </c>
       <c r="G17" s="3">
-        <v>11344000</v>
+        <v>9015000</v>
       </c>
       <c r="H17" s="3">
-        <v>10083300</v>
+        <v>11065700</v>
       </c>
       <c r="I17" s="3">
-        <v>10226400</v>
+        <v>9836000</v>
       </c>
       <c r="J17" s="3">
+        <v>9975500</v>
+      </c>
+      <c r="K17" s="3">
         <v>11138100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11585800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11266500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15032800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6214100</v>
+        <v>5722300</v>
       </c>
       <c r="E18" s="3">
-        <v>5595900</v>
+        <v>6061700</v>
       </c>
       <c r="F18" s="3">
-        <v>5916800</v>
+        <v>5448500</v>
       </c>
       <c r="G18" s="3">
-        <v>2147200</v>
+        <v>5771700</v>
       </c>
       <c r="H18" s="3">
-        <v>3168800</v>
+        <v>2094500</v>
       </c>
       <c r="I18" s="3">
-        <v>1202900</v>
+        <v>3091000</v>
       </c>
       <c r="J18" s="3">
+        <v>1173400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1549000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>561300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2029400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4721500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1079,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>105000</v>
+        <v>101100</v>
       </c>
       <c r="E20" s="3">
-        <v>94600</v>
+        <v>102500</v>
       </c>
       <c r="F20" s="3">
-        <v>-820800</v>
+        <v>99500</v>
       </c>
       <c r="G20" s="3">
-        <v>-17800</v>
+        <v>-800700</v>
       </c>
       <c r="H20" s="3">
-        <v>-81600</v>
+        <v>-17400</v>
       </c>
       <c r="I20" s="3">
-        <v>-288700</v>
+        <v>-79600</v>
       </c>
       <c r="J20" s="3">
+        <v>-281600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-122100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-126900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10105900</v>
+        <v>6511200</v>
       </c>
       <c r="E21" s="3">
-        <v>5144900</v>
+        <v>9857900</v>
       </c>
       <c r="F21" s="3">
-        <v>9001600</v>
+        <v>5043600</v>
       </c>
       <c r="G21" s="3">
-        <v>1786300</v>
+        <v>8780800</v>
       </c>
       <c r="H21" s="3">
-        <v>7653200</v>
+        <v>1742500</v>
       </c>
       <c r="I21" s="3">
-        <v>720400</v>
+        <v>7465500</v>
       </c>
       <c r="J21" s="3">
+        <v>702700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3369200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>628700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7357600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5501800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,81 +1220,90 @@
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6319100</v>
+        <v>5823300</v>
       </c>
       <c r="E23" s="3">
-        <v>5690400</v>
+        <v>6164100</v>
       </c>
       <c r="F23" s="3">
-        <v>5096000</v>
+        <v>5548000</v>
       </c>
       <c r="G23" s="3">
-        <v>2129400</v>
+        <v>4971000</v>
       </c>
       <c r="H23" s="3">
-        <v>3087100</v>
+        <v>2077100</v>
       </c>
       <c r="I23" s="3">
-        <v>914300</v>
+        <v>3011400</v>
       </c>
       <c r="J23" s="3">
+        <v>891800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1671100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>639800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1902500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4925100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1978400</v>
+        <v>1513700</v>
       </c>
       <c r="E24" s="3">
-        <v>1786200</v>
+        <v>1929900</v>
       </c>
       <c r="F24" s="3">
-        <v>1440500</v>
+        <v>1741400</v>
       </c>
       <c r="G24" s="3">
-        <v>920300</v>
+        <v>1405200</v>
       </c>
       <c r="H24" s="3">
-        <v>755600</v>
+        <v>897700</v>
       </c>
       <c r="I24" s="3">
-        <v>-287000</v>
+        <v>737000</v>
       </c>
       <c r="J24" s="3">
+        <v>-279900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-561300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-178400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-284100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1055800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4340700</v>
+        <v>4309600</v>
       </c>
       <c r="E26" s="3">
-        <v>3904200</v>
+        <v>4234200</v>
       </c>
       <c r="F26" s="3">
-        <v>3655400</v>
+        <v>3806600</v>
       </c>
       <c r="G26" s="3">
-        <v>1209100</v>
+        <v>3565800</v>
       </c>
       <c r="H26" s="3">
-        <v>2331600</v>
+        <v>1179400</v>
       </c>
       <c r="I26" s="3">
-        <v>1201200</v>
+        <v>2274400</v>
       </c>
       <c r="J26" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>818200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2186500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4340700</v>
+        <v>4309600</v>
       </c>
       <c r="E27" s="3">
-        <v>3904200</v>
+        <v>4234200</v>
       </c>
       <c r="F27" s="3">
-        <v>3655400</v>
+        <v>3806600</v>
       </c>
       <c r="G27" s="3">
-        <v>1209100</v>
+        <v>3565800</v>
       </c>
       <c r="H27" s="3">
-        <v>2331600</v>
+        <v>1179400</v>
       </c>
       <c r="I27" s="3">
-        <v>1201200</v>
+        <v>2274400</v>
       </c>
       <c r="J27" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>818200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2186500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105000</v>
+        <v>-101100</v>
       </c>
       <c r="E32" s="3">
-        <v>-94600</v>
+        <v>-102500</v>
       </c>
       <c r="F32" s="3">
-        <v>820800</v>
+        <v>-99500</v>
       </c>
       <c r="G32" s="3">
-        <v>17800</v>
+        <v>800700</v>
       </c>
       <c r="H32" s="3">
-        <v>81600</v>
+        <v>17400</v>
       </c>
       <c r="I32" s="3">
-        <v>288700</v>
+        <v>79600</v>
       </c>
       <c r="J32" s="3">
+        <v>281600</v>
+      </c>
+      <c r="K32" s="3">
         <v>122100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>126900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-216000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4340700</v>
+        <v>4309600</v>
       </c>
       <c r="E33" s="3">
-        <v>3904200</v>
+        <v>4234200</v>
       </c>
       <c r="F33" s="3">
-        <v>3655400</v>
+        <v>3806600</v>
       </c>
       <c r="G33" s="3">
-        <v>1209100</v>
+        <v>3565800</v>
       </c>
       <c r="H33" s="3">
-        <v>2331600</v>
+        <v>1179400</v>
       </c>
       <c r="I33" s="3">
-        <v>1201200</v>
+        <v>2274400</v>
       </c>
       <c r="J33" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>818200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2186500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4340700</v>
+        <v>4309600</v>
       </c>
       <c r="E35" s="3">
-        <v>3904200</v>
+        <v>4234200</v>
       </c>
       <c r="F35" s="3">
-        <v>3655400</v>
+        <v>3806600</v>
       </c>
       <c r="G35" s="3">
-        <v>1209100</v>
+        <v>3565800</v>
       </c>
       <c r="H35" s="3">
-        <v>2331600</v>
+        <v>1179400</v>
       </c>
       <c r="I35" s="3">
-        <v>1201200</v>
+        <v>2274400</v>
       </c>
       <c r="J35" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>818200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2186500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1794,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2256400</v>
+        <v>4713700</v>
       </c>
       <c r="E41" s="3">
-        <v>2070700</v>
+        <v>2201000</v>
       </c>
       <c r="F41" s="3">
-        <v>3368900</v>
+        <v>2098700</v>
       </c>
       <c r="G41" s="3">
-        <v>1803800</v>
+        <v>3286300</v>
       </c>
       <c r="H41" s="3">
-        <v>2017200</v>
+        <v>1759600</v>
       </c>
       <c r="I41" s="3">
-        <v>1970700</v>
+        <v>1967700</v>
       </c>
       <c r="J41" s="3">
+        <v>1922400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4021200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1761200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2655200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2169500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24070900</v>
+        <v>18386300</v>
       </c>
       <c r="E42" s="3">
-        <v>19949900</v>
+        <v>23480400</v>
       </c>
       <c r="F42" s="3">
-        <v>16850000</v>
+        <v>19460500</v>
       </c>
       <c r="G42" s="3">
-        <v>12875600</v>
+        <v>16436600</v>
       </c>
       <c r="H42" s="3">
-        <v>13621400</v>
+        <v>12559700</v>
       </c>
       <c r="I42" s="3">
-        <v>10005400</v>
+        <v>13287200</v>
       </c>
       <c r="J42" s="3">
+        <v>9760000</v>
+      </c>
+      <c r="K42" s="3">
         <v>10219900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13331700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13438100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11178500</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3377700</v>
+        <v>3470200</v>
       </c>
       <c r="E43" s="3">
-        <v>3111500</v>
+        <v>3294800</v>
       </c>
       <c r="F43" s="3">
-        <v>3600900</v>
+        <v>3076200</v>
       </c>
       <c r="G43" s="3">
-        <v>2982500</v>
+        <v>3512600</v>
       </c>
       <c r="H43" s="3">
-        <v>3226300</v>
+        <v>2909300</v>
       </c>
       <c r="I43" s="3">
-        <v>3341500</v>
+        <v>3147100</v>
       </c>
       <c r="J43" s="3">
+        <v>3259500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3324000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3239600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3675700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8630000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>970200</v>
+        <v>883700</v>
       </c>
       <c r="E44" s="3">
-        <v>839600</v>
+        <v>946400</v>
       </c>
       <c r="F44" s="3">
-        <v>1082000</v>
+        <v>819200</v>
       </c>
       <c r="G44" s="3">
-        <v>1055200</v>
+        <v>1055400</v>
       </c>
       <c r="H44" s="3">
-        <v>1230500</v>
+        <v>1029300</v>
       </c>
       <c r="I44" s="3">
-        <v>1249600</v>
+        <v>1200300</v>
       </c>
       <c r="J44" s="3">
+        <v>1218900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1436200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1374700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1569400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3085400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1446100</v>
+        <v>1370200</v>
       </c>
       <c r="E45" s="3">
-        <v>1301200</v>
+        <v>1410700</v>
       </c>
       <c r="F45" s="3">
-        <v>1123600</v>
+        <v>1299000</v>
       </c>
       <c r="G45" s="3">
-        <v>1203400</v>
+        <v>1096000</v>
       </c>
       <c r="H45" s="3">
-        <v>902200</v>
+        <v>1173800</v>
       </c>
       <c r="I45" s="3">
-        <v>943800</v>
+        <v>880100</v>
       </c>
       <c r="J45" s="3">
+        <v>920700</v>
+      </c>
+      <c r="K45" s="3">
         <v>937100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1101500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1122300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1290800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32121300</v>
+        <v>28824100</v>
       </c>
       <c r="E46" s="3">
-        <v>27273000</v>
+        <v>31333300</v>
       </c>
       <c r="F46" s="3">
-        <v>26025400</v>
+        <v>26753500</v>
       </c>
       <c r="G46" s="3">
-        <v>19920500</v>
+        <v>25386900</v>
       </c>
       <c r="H46" s="3">
-        <v>20997600</v>
+        <v>19431800</v>
       </c>
       <c r="I46" s="3">
-        <v>17511000</v>
+        <v>20482400</v>
       </c>
       <c r="J46" s="3">
+        <v>17081400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19938400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20808700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22460700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20463200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3981400</v>
+        <v>7002800</v>
       </c>
       <c r="E47" s="3">
-        <v>4124900</v>
+        <v>3883800</v>
       </c>
       <c r="F47" s="3">
-        <v>3911100</v>
+        <v>4026200</v>
       </c>
       <c r="G47" s="3">
-        <v>4689800</v>
+        <v>3815200</v>
       </c>
       <c r="H47" s="3">
-        <v>4723100</v>
+        <v>4574700</v>
       </c>
       <c r="I47" s="3">
-        <v>4915800</v>
+        <v>4607200</v>
       </c>
       <c r="J47" s="3">
+        <v>4795200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4716500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4776400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4559700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4448300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60213100</v>
+        <v>62944600</v>
       </c>
       <c r="E48" s="3">
-        <v>58444700</v>
+        <v>58735900</v>
       </c>
       <c r="F48" s="3">
-        <v>56230500</v>
+        <v>57857100</v>
       </c>
       <c r="G48" s="3">
-        <v>56799100</v>
+        <v>54851000</v>
       </c>
       <c r="H48" s="3">
-        <v>59574000</v>
+        <v>55405700</v>
       </c>
       <c r="I48" s="3">
-        <v>62050100</v>
+        <v>58112500</v>
       </c>
       <c r="J48" s="3">
+        <v>60527800</v>
+      </c>
+      <c r="K48" s="3">
         <v>62075800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>67399100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67875000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134732800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2253500</v>
+        <v>2282200</v>
       </c>
       <c r="E49" s="3">
-        <v>2255100</v>
+        <v>2198200</v>
       </c>
       <c r="F49" s="3">
-        <v>2165300</v>
+        <v>2249600</v>
       </c>
       <c r="G49" s="3">
-        <v>2162200</v>
+        <v>2112100</v>
       </c>
       <c r="H49" s="3">
-        <v>2284300</v>
+        <v>2109200</v>
       </c>
       <c r="I49" s="3">
-        <v>2388100</v>
+        <v>2228300</v>
       </c>
       <c r="J49" s="3">
+        <v>2329500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2348200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2437300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2353000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4796600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4813600</v>
+        <v>4998400</v>
       </c>
       <c r="E52" s="3">
-        <v>5293600</v>
+        <v>4695500</v>
       </c>
       <c r="F52" s="3">
-        <v>5356300</v>
+        <v>5179500</v>
       </c>
       <c r="G52" s="3">
-        <v>4986900</v>
+        <v>5224800</v>
       </c>
       <c r="H52" s="3">
-        <v>4976300</v>
+        <v>4864600</v>
       </c>
       <c r="I52" s="3">
-        <v>4629500</v>
+        <v>4854200</v>
       </c>
       <c r="J52" s="3">
+        <v>4515900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3867500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3176400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2459200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1723500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103382900</v>
+        <v>106052000</v>
       </c>
       <c r="E54" s="3">
-        <v>97391200</v>
+        <v>100846600</v>
       </c>
       <c r="F54" s="3">
-        <v>93688600</v>
+        <v>96065900</v>
       </c>
       <c r="G54" s="3">
-        <v>88558600</v>
+        <v>91390100</v>
       </c>
       <c r="H54" s="3">
-        <v>92555400</v>
+        <v>86386000</v>
       </c>
       <c r="I54" s="3">
-        <v>91494500</v>
+        <v>90284700</v>
       </c>
       <c r="J54" s="3">
+        <v>89249800</v>
+      </c>
+      <c r="K54" s="3">
         <v>92946300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98598000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99707600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96399600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2358,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5398300</v>
+        <v>5618800</v>
       </c>
       <c r="E57" s="3">
-        <v>4689800</v>
+        <v>5265900</v>
       </c>
       <c r="F57" s="3">
-        <v>3919000</v>
+        <v>4661600</v>
       </c>
       <c r="G57" s="3">
-        <v>3832800</v>
+        <v>3822900</v>
       </c>
       <c r="H57" s="3">
-        <v>3911400</v>
+        <v>3738800</v>
       </c>
       <c r="I57" s="3">
-        <v>3636500</v>
+        <v>3815400</v>
       </c>
       <c r="J57" s="3">
+        <v>3547300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3857000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6848800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8883400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9262600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2925100</v>
+        <v>1961500</v>
       </c>
       <c r="E58" s="3">
-        <v>1010400</v>
+        <v>2853400</v>
       </c>
       <c r="F58" s="3">
-        <v>689300</v>
+        <v>1258400</v>
       </c>
       <c r="G58" s="3">
-        <v>1993200</v>
+        <v>672400</v>
       </c>
       <c r="H58" s="3">
-        <v>3377900</v>
+        <v>1944300</v>
       </c>
       <c r="I58" s="3">
-        <v>2823400</v>
+        <v>3295100</v>
       </c>
       <c r="J58" s="3">
+        <v>2754100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4886900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4984300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3693800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8451800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6202200</v>
+        <v>5190800</v>
       </c>
       <c r="E59" s="3">
-        <v>4378100</v>
+        <v>6050100</v>
       </c>
       <c r="F59" s="3">
-        <v>5282100</v>
+        <v>4459000</v>
       </c>
       <c r="G59" s="3">
-        <v>2985400</v>
+        <v>5152500</v>
       </c>
       <c r="H59" s="3">
-        <v>4255600</v>
+        <v>2912100</v>
       </c>
       <c r="I59" s="3">
-        <v>3166200</v>
+        <v>4151200</v>
       </c>
       <c r="J59" s="3">
+        <v>3088500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4285600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>689700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1235700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4984600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14525600</v>
+        <v>12771200</v>
       </c>
       <c r="E60" s="3">
-        <v>10078300</v>
+        <v>14169300</v>
       </c>
       <c r="F60" s="3">
-        <v>9890400</v>
+        <v>10379000</v>
       </c>
       <c r="G60" s="3">
-        <v>8811400</v>
+        <v>9647700</v>
       </c>
       <c r="H60" s="3">
-        <v>11545000</v>
+        <v>8595200</v>
       </c>
       <c r="I60" s="3">
-        <v>9626100</v>
+        <v>11261700</v>
       </c>
       <c r="J60" s="3">
+        <v>9389900</v>
+      </c>
+      <c r="K60" s="3">
         <v>13029600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12522800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13812800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15051700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18441900</v>
+        <v>20044200</v>
       </c>
       <c r="E61" s="3">
-        <v>19008100</v>
+        <v>17989500</v>
       </c>
       <c r="F61" s="3">
-        <v>18576200</v>
+        <v>18681700</v>
       </c>
       <c r="G61" s="3">
-        <v>16982000</v>
+        <v>18120500</v>
       </c>
       <c r="H61" s="3">
-        <v>17591400</v>
+        <v>16565400</v>
       </c>
       <c r="I61" s="3">
-        <v>18766900</v>
+        <v>17159800</v>
       </c>
       <c r="J61" s="3">
+        <v>18306500</v>
+      </c>
+      <c r="K61" s="3">
         <v>17924500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19450600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18337400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15325800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8594700</v>
+        <v>10502900</v>
       </c>
       <c r="E62" s="3">
-        <v>8421300</v>
+        <v>8383900</v>
       </c>
       <c r="F62" s="3">
-        <v>8404900</v>
+        <v>8234500</v>
       </c>
       <c r="G62" s="3">
-        <v>8246400</v>
+        <v>8198700</v>
       </c>
       <c r="H62" s="3">
-        <v>8201000</v>
+        <v>8044100</v>
       </c>
       <c r="I62" s="3">
-        <v>8238900</v>
+        <v>7999800</v>
       </c>
       <c r="J62" s="3">
+        <v>8036800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8764900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9332200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10720700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10815300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41562300</v>
+        <v>43323800</v>
       </c>
       <c r="E66" s="3">
-        <v>37507700</v>
+        <v>40542600</v>
       </c>
       <c r="F66" s="3">
-        <v>36871500</v>
+        <v>37295300</v>
       </c>
       <c r="G66" s="3">
-        <v>34039800</v>
+        <v>35966900</v>
       </c>
       <c r="H66" s="3">
-        <v>37337400</v>
+        <v>33204700</v>
       </c>
       <c r="I66" s="3">
-        <v>36631900</v>
+        <v>36421400</v>
       </c>
       <c r="J66" s="3">
+        <v>35733200</v>
+      </c>
+      <c r="K66" s="3">
         <v>39719000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41305600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42870900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41192900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56139600</v>
+        <v>56859900</v>
       </c>
       <c r="E72" s="3">
-        <v>54276200</v>
+        <v>54762300</v>
       </c>
       <c r="F72" s="3">
-        <v>52127600</v>
+        <v>53299400</v>
       </c>
       <c r="G72" s="3">
-        <v>50150900</v>
+        <v>50848700</v>
       </c>
       <c r="H72" s="3">
-        <v>49990000</v>
+        <v>48920500</v>
       </c>
       <c r="I72" s="3">
-        <v>49042500</v>
+        <v>48763600</v>
       </c>
       <c r="J72" s="3">
+        <v>47839300</v>
+      </c>
+      <c r="K72" s="3">
         <v>48454500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52819000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53565800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100924900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61820700</v>
+        <v>62728300</v>
       </c>
       <c r="E76" s="3">
-        <v>59883500</v>
+        <v>60304000</v>
       </c>
       <c r="F76" s="3">
-        <v>56817100</v>
+        <v>58770600</v>
       </c>
       <c r="G76" s="3">
-        <v>54518800</v>
+        <v>55423200</v>
       </c>
       <c r="H76" s="3">
-        <v>55218000</v>
+        <v>53181300</v>
       </c>
       <c r="I76" s="3">
-        <v>54862600</v>
+        <v>53863300</v>
       </c>
       <c r="J76" s="3">
+        <v>53516600</v>
+      </c>
+      <c r="K76" s="3">
         <v>53227300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57292300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56836700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55206700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4340700</v>
+        <v>4309600</v>
       </c>
       <c r="E81" s="3">
-        <v>3904200</v>
+        <v>4234200</v>
       </c>
       <c r="F81" s="3">
-        <v>3655400</v>
+        <v>3806600</v>
       </c>
       <c r="G81" s="3">
-        <v>1209100</v>
+        <v>3565800</v>
       </c>
       <c r="H81" s="3">
-        <v>2331600</v>
+        <v>1179400</v>
       </c>
       <c r="I81" s="3">
-        <v>1201200</v>
+        <v>2274400</v>
       </c>
       <c r="J81" s="3">
+        <v>1171700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1109800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>818200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2186500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3267,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8320500</v>
+        <v>9171600</v>
       </c>
       <c r="E89" s="3">
-        <v>9394600</v>
+        <v>8116400</v>
       </c>
       <c r="F89" s="3">
-        <v>8380100</v>
+        <v>9236200</v>
       </c>
       <c r="G89" s="3">
-        <v>6583900</v>
+        <v>8174500</v>
       </c>
       <c r="H89" s="3">
-        <v>7008600</v>
+        <v>6422300</v>
       </c>
       <c r="I89" s="3">
-        <v>5787600</v>
+        <v>6836600</v>
       </c>
       <c r="J89" s="3">
+        <v>5645600</v>
+      </c>
+      <c r="K89" s="3">
         <v>4666800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7049300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4837600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8421300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3549,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7656500</v>
+        <v>-1972600</v>
       </c>
       <c r="E94" s="3">
-        <v>-6980200</v>
+        <v>-7468700</v>
       </c>
       <c r="F94" s="3">
-        <v>-6630500</v>
+        <v>-6808900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2772200</v>
+        <v>-6467800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6469500</v>
+        <v>-2704200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3230300</v>
+        <v>-6310800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3151100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-780400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5361600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5991000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4935500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3831,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-475500</v>
+        <v>-4811400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3706400</v>
+        <v>-463800</v>
       </c>
       <c r="F100" s="3">
-        <v>-220700</v>
+        <v>-3578800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4010600</v>
+        <v>-215300</v>
       </c>
       <c r="H100" s="3">
-        <v>-476200</v>
+        <v>-3912200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4611400</v>
+        <v>-464500</v>
       </c>
       <c r="J100" s="3">
+        <v>-4498300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1592600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2635000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1612000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8373700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2900</v>
+        <v>46300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6300</v>
+        <v>-2800</v>
       </c>
       <c r="F101" s="3">
-        <v>36200</v>
+        <v>-6200</v>
       </c>
       <c r="G101" s="3">
-        <v>-14500</v>
+        <v>35300</v>
       </c>
       <c r="H101" s="3">
-        <v>-16400</v>
+        <v>-14100</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>-16000</v>
       </c>
       <c r="J101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K101" s="3">
         <v>24700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>53300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185700</v>
+        <v>2433900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1298200</v>
+        <v>181100</v>
       </c>
       <c r="F102" s="3">
-        <v>1565100</v>
+        <v>-1240300</v>
       </c>
       <c r="G102" s="3">
-        <v>-213400</v>
+        <v>1526700</v>
       </c>
       <c r="H102" s="3">
-        <v>46500</v>
+        <v>-208100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2050500</v>
+        <v>45300</v>
       </c>
       <c r="J102" s="3">
+        <v>-2000200</v>
+      </c>
+      <c r="K102" s="3">
         <v>2318500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-894000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>441200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4962900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17399700</v>
+        <v>18054800</v>
       </c>
       <c r="E8" s="3">
-        <v>15238800</v>
+        <v>15874700</v>
       </c>
       <c r="F8" s="3">
-        <v>17083800</v>
+        <v>17727100</v>
       </c>
       <c r="G8" s="3">
-        <v>14786600</v>
+        <v>15343400</v>
       </c>
       <c r="H8" s="3">
-        <v>13160200</v>
+        <v>13655700</v>
       </c>
       <c r="I8" s="3">
-        <v>12927000</v>
+        <v>13413700</v>
       </c>
       <c r="J8" s="3">
-        <v>11148900</v>
+        <v>11568700</v>
       </c>
       <c r="K8" s="3">
         <v>9589100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4413100</v>
+        <v>4579200</v>
       </c>
       <c r="E9" s="3">
-        <v>3238400</v>
+        <v>3374700</v>
       </c>
       <c r="F9" s="3">
-        <v>5055100</v>
+        <v>5245400</v>
       </c>
       <c r="G9" s="3">
-        <v>3418800</v>
+        <v>3547500</v>
       </c>
       <c r="H9" s="3">
-        <v>3798900</v>
+        <v>3942000</v>
       </c>
       <c r="I9" s="3">
-        <v>3476200</v>
+        <v>3607100</v>
       </c>
       <c r="J9" s="3">
-        <v>3010400</v>
+        <v>3123800</v>
       </c>
       <c r="K9" s="3">
         <v>2972900</v>
@@ -807,25 +807,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12986600</v>
+        <v>13475600</v>
       </c>
       <c r="E10" s="3">
-        <v>12000500</v>
+        <v>12499900</v>
       </c>
       <c r="F10" s="3">
-        <v>12028700</v>
+        <v>12481600</v>
       </c>
       <c r="G10" s="3">
-        <v>11367800</v>
+        <v>11795900</v>
       </c>
       <c r="H10" s="3">
-        <v>9361200</v>
+        <v>9713700</v>
       </c>
       <c r="I10" s="3">
-        <v>9450800</v>
+        <v>9806700</v>
       </c>
       <c r="J10" s="3">
-        <v>8138500</v>
+        <v>8445000</v>
       </c>
       <c r="K10" s="3">
         <v>6616100</v>
@@ -861,25 +861,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>854300</v>
+        <v>886500</v>
       </c>
       <c r="E12" s="3">
-        <v>873100</v>
+        <v>908800</v>
       </c>
       <c r="F12" s="3">
-        <v>1522100</v>
+        <v>1579400</v>
       </c>
       <c r="G12" s="3">
-        <v>316300</v>
+        <v>328200</v>
       </c>
       <c r="H12" s="3">
-        <v>589000</v>
+        <v>611100</v>
       </c>
       <c r="I12" s="3">
-        <v>374100</v>
+        <v>388200</v>
       </c>
       <c r="J12" s="3">
-        <v>551400</v>
+        <v>572200</v>
       </c>
       <c r="K12" s="3">
         <v>490600</v>
@@ -937,25 +937,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>319400</v>
+        <v>331400</v>
       </c>
       <c r="E14" s="3">
-        <v>-26300</v>
+        <v>-27200</v>
       </c>
       <c r="F14" s="3">
-        <v>71000</v>
+        <v>73600</v>
       </c>
       <c r="G14" s="3">
-        <v>22300</v>
+        <v>23100</v>
       </c>
       <c r="H14" s="3">
-        <v>1235100</v>
+        <v>1281700</v>
       </c>
       <c r="I14" s="3">
-        <v>42700</v>
+        <v>44300</v>
       </c>
       <c r="J14" s="3">
-        <v>253600</v>
+        <v>263200</v>
       </c>
       <c r="K14" s="3">
         <v>1486300</v>
@@ -975,25 +975,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4381700</v>
+        <v>4546700</v>
       </c>
       <c r="E15" s="3">
-        <v>3693800</v>
+        <v>3851600</v>
       </c>
       <c r="F15" s="3">
-        <v>3305400</v>
+        <v>3429900</v>
       </c>
       <c r="G15" s="3">
-        <v>3809900</v>
+        <v>3953300</v>
       </c>
       <c r="H15" s="3">
-        <v>4119400</v>
+        <v>4274600</v>
       </c>
       <c r="I15" s="3">
-        <v>4454100</v>
+        <v>4621800</v>
       </c>
       <c r="J15" s="3">
-        <v>4727600</v>
+        <v>4905600</v>
       </c>
       <c r="K15" s="3">
         <v>5040300</v>
@@ -1026,25 +1026,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11677400</v>
+        <v>12117100</v>
       </c>
       <c r="E17" s="3">
-        <v>9177200</v>
+        <v>9570200</v>
       </c>
       <c r="F17" s="3">
-        <v>11635300</v>
+        <v>12073400</v>
       </c>
       <c r="G17" s="3">
-        <v>9015000</v>
+        <v>9354400</v>
       </c>
       <c r="H17" s="3">
-        <v>11065700</v>
+        <v>11482300</v>
       </c>
       <c r="I17" s="3">
-        <v>9836000</v>
+        <v>10206300</v>
       </c>
       <c r="J17" s="3">
-        <v>9975500</v>
+        <v>10351100</v>
       </c>
       <c r="K17" s="3">
         <v>11138100</v>
@@ -1064,25 +1064,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5722300</v>
+        <v>5937700</v>
       </c>
       <c r="E18" s="3">
-        <v>6061700</v>
+        <v>6304400</v>
       </c>
       <c r="F18" s="3">
-        <v>5448500</v>
+        <v>5653700</v>
       </c>
       <c r="G18" s="3">
-        <v>5771700</v>
+        <v>5989000</v>
       </c>
       <c r="H18" s="3">
-        <v>2094500</v>
+        <v>2173400</v>
       </c>
       <c r="I18" s="3">
-        <v>3091000</v>
+        <v>3207400</v>
       </c>
       <c r="J18" s="3">
-        <v>1173400</v>
+        <v>1217600</v>
       </c>
       <c r="K18" s="3">
         <v>-1549000</v>
@@ -1118,25 +1118,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>101100</v>
+        <v>104900</v>
       </c>
       <c r="E20" s="3">
-        <v>102500</v>
+        <v>98000</v>
       </c>
       <c r="F20" s="3">
-        <v>99500</v>
+        <v>103300</v>
       </c>
       <c r="G20" s="3">
-        <v>-800700</v>
+        <v>-830900</v>
       </c>
       <c r="H20" s="3">
-        <v>-17400</v>
+        <v>-18000</v>
       </c>
       <c r="I20" s="3">
-        <v>-79600</v>
+        <v>-82600</v>
       </c>
       <c r="J20" s="3">
-        <v>-281600</v>
+        <v>-292200</v>
       </c>
       <c r="K20" s="3">
         <v>-122100</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6511200</v>
+        <v>6756400</v>
       </c>
       <c r="E21" s="3">
-        <v>9857900</v>
+        <v>10235400</v>
       </c>
       <c r="F21" s="3">
-        <v>5043600</v>
+        <v>5233500</v>
       </c>
       <c r="G21" s="3">
-        <v>8780800</v>
+        <v>9111400</v>
       </c>
       <c r="H21" s="3">
-        <v>1742500</v>
+        <v>1808100</v>
       </c>
       <c r="I21" s="3">
-        <v>7465500</v>
+        <v>7746600</v>
       </c>
       <c r="J21" s="3">
-        <v>702700</v>
+        <v>729200</v>
       </c>
       <c r="K21" s="3">
         <v>3369200</v>
@@ -1232,25 +1232,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5823300</v>
+        <v>6042600</v>
       </c>
       <c r="E23" s="3">
-        <v>6164100</v>
+        <v>6402500</v>
       </c>
       <c r="F23" s="3">
-        <v>5548000</v>
+        <v>5756900</v>
       </c>
       <c r="G23" s="3">
-        <v>4971000</v>
+        <v>5158100</v>
       </c>
       <c r="H23" s="3">
-        <v>2077100</v>
+        <v>2155400</v>
       </c>
       <c r="I23" s="3">
-        <v>3011400</v>
+        <v>3124800</v>
       </c>
       <c r="J23" s="3">
-        <v>891800</v>
+        <v>925400</v>
       </c>
       <c r="K23" s="3">
         <v>-1671100</v>
@@ -1270,25 +1270,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1513700</v>
+        <v>1570700</v>
       </c>
       <c r="E24" s="3">
-        <v>1929900</v>
+        <v>2003700</v>
       </c>
       <c r="F24" s="3">
-        <v>1741400</v>
+        <v>1807000</v>
       </c>
       <c r="G24" s="3">
-        <v>1405200</v>
+        <v>1458100</v>
       </c>
       <c r="H24" s="3">
-        <v>897700</v>
+        <v>931500</v>
       </c>
       <c r="I24" s="3">
-        <v>737000</v>
+        <v>764800</v>
       </c>
       <c r="J24" s="3">
-        <v>-279900</v>
+        <v>-290500</v>
       </c>
       <c r="K24" s="3">
         <v>-561300</v>
@@ -1346,25 +1346,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4309600</v>
+        <v>4471900</v>
       </c>
       <c r="E26" s="3">
-        <v>4234200</v>
+        <v>4398700</v>
       </c>
       <c r="F26" s="3">
-        <v>3806600</v>
+        <v>3950000</v>
       </c>
       <c r="G26" s="3">
-        <v>3565800</v>
+        <v>3700000</v>
       </c>
       <c r="H26" s="3">
-        <v>1179400</v>
+        <v>1223900</v>
       </c>
       <c r="I26" s="3">
-        <v>2274400</v>
+        <v>2360000</v>
       </c>
       <c r="J26" s="3">
-        <v>1171700</v>
+        <v>1215900</v>
       </c>
       <c r="K26" s="3">
         <v>-1109800</v>
@@ -1384,25 +1384,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4309600</v>
+        <v>4471900</v>
       </c>
       <c r="E27" s="3">
-        <v>4234200</v>
+        <v>4398700</v>
       </c>
       <c r="F27" s="3">
-        <v>3806600</v>
+        <v>3950000</v>
       </c>
       <c r="G27" s="3">
-        <v>3565800</v>
+        <v>3700000</v>
       </c>
       <c r="H27" s="3">
-        <v>1179400</v>
+        <v>1223900</v>
       </c>
       <c r="I27" s="3">
-        <v>2274400</v>
+        <v>2360000</v>
       </c>
       <c r="J27" s="3">
-        <v>1171700</v>
+        <v>1215900</v>
       </c>
       <c r="K27" s="3">
         <v>-1109800</v>
@@ -1574,25 +1574,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101100</v>
+        <v>-104900</v>
       </c>
       <c r="E32" s="3">
-        <v>-102500</v>
+        <v>-98000</v>
       </c>
       <c r="F32" s="3">
-        <v>-99500</v>
+        <v>-103300</v>
       </c>
       <c r="G32" s="3">
-        <v>800700</v>
+        <v>830900</v>
       </c>
       <c r="H32" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="I32" s="3">
-        <v>79600</v>
+        <v>82600</v>
       </c>
       <c r="J32" s="3">
-        <v>281600</v>
+        <v>292200</v>
       </c>
       <c r="K32" s="3">
         <v>122100</v>
@@ -1612,25 +1612,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4309600</v>
+        <v>4471900</v>
       </c>
       <c r="E33" s="3">
-        <v>4234200</v>
+        <v>4398700</v>
       </c>
       <c r="F33" s="3">
-        <v>3806600</v>
+        <v>3950000</v>
       </c>
       <c r="G33" s="3">
-        <v>3565800</v>
+        <v>3700000</v>
       </c>
       <c r="H33" s="3">
-        <v>1179400</v>
+        <v>1223900</v>
       </c>
       <c r="I33" s="3">
-        <v>2274400</v>
+        <v>2360000</v>
       </c>
       <c r="J33" s="3">
-        <v>1171700</v>
+        <v>1215900</v>
       </c>
       <c r="K33" s="3">
         <v>-1109800</v>
@@ -1688,25 +1688,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4309600</v>
+        <v>4471900</v>
       </c>
       <c r="E35" s="3">
-        <v>4234200</v>
+        <v>4398700</v>
       </c>
       <c r="F35" s="3">
-        <v>3806600</v>
+        <v>3950000</v>
       </c>
       <c r="G35" s="3">
-        <v>3565800</v>
+        <v>3700000</v>
       </c>
       <c r="H35" s="3">
-        <v>1179400</v>
+        <v>1223900</v>
       </c>
       <c r="I35" s="3">
-        <v>2274400</v>
+        <v>2360000</v>
       </c>
       <c r="J35" s="3">
-        <v>1171700</v>
+        <v>1215900</v>
       </c>
       <c r="K35" s="3">
         <v>-1109800</v>
@@ -1801,25 +1801,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4713700</v>
+        <v>4891200</v>
       </c>
       <c r="E41" s="3">
-        <v>2201000</v>
+        <v>2283900</v>
       </c>
       <c r="F41" s="3">
-        <v>2098700</v>
+        <v>2177700</v>
       </c>
       <c r="G41" s="3">
-        <v>3286300</v>
+        <v>3410000</v>
       </c>
       <c r="H41" s="3">
-        <v>1759600</v>
+        <v>1825800</v>
       </c>
       <c r="I41" s="3">
-        <v>1967700</v>
+        <v>2041800</v>
       </c>
       <c r="J41" s="3">
-        <v>1922400</v>
+        <v>1994700</v>
       </c>
       <c r="K41" s="3">
         <v>4021200</v>
@@ -1839,25 +1839,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18386300</v>
+        <v>19078600</v>
       </c>
       <c r="E42" s="3">
-        <v>23480400</v>
+        <v>24364500</v>
       </c>
       <c r="F42" s="3">
-        <v>19460500</v>
+        <v>20193200</v>
       </c>
       <c r="G42" s="3">
-        <v>16436600</v>
+        <v>17055500</v>
       </c>
       <c r="H42" s="3">
-        <v>12559700</v>
+        <v>13032600</v>
       </c>
       <c r="I42" s="3">
-        <v>13287200</v>
+        <v>13787600</v>
       </c>
       <c r="J42" s="3">
-        <v>9760000</v>
+        <v>10127500</v>
       </c>
       <c r="K42" s="3">
         <v>10219900</v>
@@ -1877,25 +1877,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3470200</v>
+        <v>3600800</v>
       </c>
       <c r="E43" s="3">
-        <v>3294800</v>
+        <v>3418900</v>
       </c>
       <c r="F43" s="3">
-        <v>3076200</v>
+        <v>3192000</v>
       </c>
       <c r="G43" s="3">
-        <v>3512600</v>
+        <v>3644800</v>
       </c>
       <c r="H43" s="3">
-        <v>2909300</v>
+        <v>3018900</v>
       </c>
       <c r="I43" s="3">
-        <v>3147100</v>
+        <v>3265600</v>
       </c>
       <c r="J43" s="3">
-        <v>3259500</v>
+        <v>3382300</v>
       </c>
       <c r="K43" s="3">
         <v>3324000</v>
@@ -1915,25 +1915,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>883700</v>
+        <v>917000</v>
       </c>
       <c r="E44" s="3">
-        <v>946400</v>
+        <v>982000</v>
       </c>
       <c r="F44" s="3">
-        <v>819200</v>
+        <v>850000</v>
       </c>
       <c r="G44" s="3">
-        <v>1055400</v>
+        <v>1095200</v>
       </c>
       <c r="H44" s="3">
-        <v>1029300</v>
+        <v>1068000</v>
       </c>
       <c r="I44" s="3">
-        <v>1200300</v>
+        <v>1245500</v>
       </c>
       <c r="J44" s="3">
-        <v>1218900</v>
+        <v>1264800</v>
       </c>
       <c r="K44" s="3">
         <v>1436200</v>
@@ -1953,25 +1953,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1370200</v>
+        <v>1421800</v>
       </c>
       <c r="E45" s="3">
-        <v>1410700</v>
+        <v>1463800</v>
       </c>
       <c r="F45" s="3">
-        <v>1299000</v>
+        <v>1347900</v>
       </c>
       <c r="G45" s="3">
-        <v>1096000</v>
+        <v>1137300</v>
       </c>
       <c r="H45" s="3">
-        <v>1173800</v>
+        <v>1218000</v>
       </c>
       <c r="I45" s="3">
-        <v>880100</v>
+        <v>913200</v>
       </c>
       <c r="J45" s="3">
-        <v>920700</v>
+        <v>955300</v>
       </c>
       <c r="K45" s="3">
         <v>937100</v>
@@ -1991,25 +1991,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28824100</v>
+        <v>29909400</v>
       </c>
       <c r="E46" s="3">
-        <v>31333300</v>
+        <v>32513100</v>
       </c>
       <c r="F46" s="3">
-        <v>26753500</v>
+        <v>27760900</v>
       </c>
       <c r="G46" s="3">
-        <v>25386900</v>
+        <v>26342800</v>
       </c>
       <c r="H46" s="3">
-        <v>19431800</v>
+        <v>20163400</v>
       </c>
       <c r="I46" s="3">
-        <v>20482400</v>
+        <v>21253700</v>
       </c>
       <c r="J46" s="3">
-        <v>17081400</v>
+        <v>17724600</v>
       </c>
       <c r="K46" s="3">
         <v>19938400</v>
@@ -2029,25 +2029,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7002800</v>
+        <v>7266400</v>
       </c>
       <c r="E47" s="3">
-        <v>3883800</v>
+        <v>4030000</v>
       </c>
       <c r="F47" s="3">
-        <v>4026200</v>
+        <v>4177800</v>
       </c>
       <c r="G47" s="3">
-        <v>3815200</v>
+        <v>3958800</v>
       </c>
       <c r="H47" s="3">
-        <v>4574700</v>
+        <v>4747000</v>
       </c>
       <c r="I47" s="3">
-        <v>4607200</v>
+        <v>4780700</v>
       </c>
       <c r="J47" s="3">
-        <v>4795200</v>
+        <v>4975700</v>
       </c>
       <c r="K47" s="3">
         <v>4716500</v>
@@ -2067,25 +2067,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62944600</v>
+        <v>65314700</v>
       </c>
       <c r="E48" s="3">
-        <v>58735900</v>
+        <v>60947500</v>
       </c>
       <c r="F48" s="3">
-        <v>57857100</v>
+        <v>60035600</v>
       </c>
       <c r="G48" s="3">
-        <v>54851000</v>
+        <v>56916400</v>
       </c>
       <c r="H48" s="3">
-        <v>55405700</v>
+        <v>57491900</v>
       </c>
       <c r="I48" s="3">
-        <v>58112500</v>
+        <v>60300700</v>
       </c>
       <c r="J48" s="3">
-        <v>60527800</v>
+        <v>62806900</v>
       </c>
       <c r="K48" s="3">
         <v>62075800</v>
@@ -2105,25 +2105,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2282200</v>
+        <v>2368100</v>
       </c>
       <c r="E49" s="3">
-        <v>2198200</v>
+        <v>2281000</v>
       </c>
       <c r="F49" s="3">
-        <v>2249600</v>
+        <v>2334300</v>
       </c>
       <c r="G49" s="3">
-        <v>2112100</v>
+        <v>2191700</v>
       </c>
       <c r="H49" s="3">
-        <v>2109200</v>
+        <v>2188600</v>
       </c>
       <c r="I49" s="3">
-        <v>2228300</v>
+        <v>2312200</v>
       </c>
       <c r="J49" s="3">
-        <v>2329500</v>
+        <v>2417200</v>
       </c>
       <c r="K49" s="3">
         <v>2348200</v>
@@ -2219,25 +2219,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4998400</v>
+        <v>5186600</v>
       </c>
       <c r="E52" s="3">
-        <v>4695500</v>
+        <v>4872300</v>
       </c>
       <c r="F52" s="3">
-        <v>5179500</v>
+        <v>5374500</v>
       </c>
       <c r="G52" s="3">
-        <v>5224800</v>
+        <v>5421600</v>
       </c>
       <c r="H52" s="3">
-        <v>4864600</v>
+        <v>5047800</v>
       </c>
       <c r="I52" s="3">
-        <v>4854200</v>
+        <v>5037000</v>
       </c>
       <c r="J52" s="3">
-        <v>4515900</v>
+        <v>4686000</v>
       </c>
       <c r="K52" s="3">
         <v>3867500</v>
@@ -2295,25 +2295,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106052000</v>
+        <v>110045300</v>
       </c>
       <c r="E54" s="3">
-        <v>100846600</v>
+        <v>104643900</v>
       </c>
       <c r="F54" s="3">
-        <v>96065900</v>
+        <v>99683100</v>
       </c>
       <c r="G54" s="3">
-        <v>91390100</v>
+        <v>94831300</v>
       </c>
       <c r="H54" s="3">
-        <v>86386000</v>
+        <v>89638700</v>
       </c>
       <c r="I54" s="3">
-        <v>90284700</v>
+        <v>93684200</v>
       </c>
       <c r="J54" s="3">
-        <v>89249800</v>
+        <v>92610400</v>
       </c>
       <c r="K54" s="3">
         <v>92946300</v>
@@ -2365,25 +2365,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5618800</v>
+        <v>5830400</v>
       </c>
       <c r="E57" s="3">
-        <v>5265900</v>
+        <v>5464100</v>
       </c>
       <c r="F57" s="3">
-        <v>4661600</v>
+        <v>4837200</v>
       </c>
       <c r="G57" s="3">
-        <v>3822900</v>
+        <v>3966800</v>
       </c>
       <c r="H57" s="3">
-        <v>3738800</v>
+        <v>3879500</v>
       </c>
       <c r="I57" s="3">
-        <v>3815400</v>
+        <v>3959100</v>
       </c>
       <c r="J57" s="3">
-        <v>3547300</v>
+        <v>3680900</v>
       </c>
       <c r="K57" s="3">
         <v>3857000</v>
@@ -2403,25 +2403,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1961500</v>
+        <v>2035400</v>
       </c>
       <c r="E58" s="3">
-        <v>2853400</v>
+        <v>2960800</v>
       </c>
       <c r="F58" s="3">
-        <v>1258400</v>
+        <v>1305800</v>
       </c>
       <c r="G58" s="3">
-        <v>672400</v>
+        <v>697700</v>
       </c>
       <c r="H58" s="3">
-        <v>1944300</v>
+        <v>2017500</v>
       </c>
       <c r="I58" s="3">
-        <v>3295100</v>
+        <v>3419100</v>
       </c>
       <c r="J58" s="3">
-        <v>2754100</v>
+        <v>2857800</v>
       </c>
       <c r="K58" s="3">
         <v>4886900</v>
@@ -2441,25 +2441,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5190800</v>
+        <v>5386300</v>
       </c>
       <c r="E59" s="3">
-        <v>6050100</v>
+        <v>6277900</v>
       </c>
       <c r="F59" s="3">
-        <v>4459000</v>
+        <v>4626900</v>
       </c>
       <c r="G59" s="3">
-        <v>5152500</v>
+        <v>5346500</v>
       </c>
       <c r="H59" s="3">
-        <v>2912100</v>
+        <v>3021800</v>
       </c>
       <c r="I59" s="3">
-        <v>4151200</v>
+        <v>4307500</v>
       </c>
       <c r="J59" s="3">
-        <v>3088500</v>
+        <v>3204800</v>
       </c>
       <c r="K59" s="3">
         <v>4285600</v>
@@ -2479,25 +2479,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12771200</v>
+        <v>13252100</v>
       </c>
       <c r="E60" s="3">
-        <v>14169300</v>
+        <v>14702800</v>
       </c>
       <c r="F60" s="3">
-        <v>10379000</v>
+        <v>10769800</v>
       </c>
       <c r="G60" s="3">
-        <v>9647700</v>
+        <v>10011000</v>
       </c>
       <c r="H60" s="3">
-        <v>8595200</v>
+        <v>8918900</v>
       </c>
       <c r="I60" s="3">
-        <v>11261700</v>
+        <v>11685800</v>
       </c>
       <c r="J60" s="3">
-        <v>9389900</v>
+        <v>9743500</v>
       </c>
       <c r="K60" s="3">
         <v>13029600</v>
@@ -2517,25 +2517,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20044200</v>
+        <v>20799000</v>
       </c>
       <c r="E61" s="3">
-        <v>17989500</v>
+        <v>18666800</v>
       </c>
       <c r="F61" s="3">
-        <v>18681700</v>
+        <v>19385200</v>
       </c>
       <c r="G61" s="3">
-        <v>18120500</v>
+        <v>18802800</v>
       </c>
       <c r="H61" s="3">
-        <v>16565400</v>
+        <v>17189100</v>
       </c>
       <c r="I61" s="3">
-        <v>17159800</v>
+        <v>17805900</v>
       </c>
       <c r="J61" s="3">
-        <v>18306500</v>
+        <v>18995800</v>
       </c>
       <c r="K61" s="3">
         <v>17924500</v>
@@ -2555,25 +2555,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10502900</v>
+        <v>10898300</v>
       </c>
       <c r="E62" s="3">
-        <v>8383900</v>
+        <v>8699600</v>
       </c>
       <c r="F62" s="3">
-        <v>8234500</v>
+        <v>8544600</v>
       </c>
       <c r="G62" s="3">
-        <v>8198700</v>
+        <v>8507400</v>
       </c>
       <c r="H62" s="3">
-        <v>8044100</v>
+        <v>8346900</v>
       </c>
       <c r="I62" s="3">
-        <v>7999800</v>
+        <v>8301100</v>
       </c>
       <c r="J62" s="3">
-        <v>8036800</v>
+        <v>8339400</v>
       </c>
       <c r="K62" s="3">
         <v>8764900</v>
@@ -2707,25 +2707,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43323800</v>
+        <v>44955100</v>
       </c>
       <c r="E66" s="3">
-        <v>40542600</v>
+        <v>42069200</v>
       </c>
       <c r="F66" s="3">
-        <v>37295300</v>
+        <v>38701000</v>
       </c>
       <c r="G66" s="3">
-        <v>35966900</v>
+        <v>37321200</v>
       </c>
       <c r="H66" s="3">
-        <v>33204700</v>
+        <v>34454900</v>
       </c>
       <c r="I66" s="3">
-        <v>36421400</v>
+        <v>37792800</v>
       </c>
       <c r="J66" s="3">
-        <v>35733200</v>
+        <v>37078700</v>
       </c>
       <c r="K66" s="3">
         <v>39719000</v>
@@ -2913,25 +2913,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56859900</v>
+        <v>59000800</v>
       </c>
       <c r="E72" s="3">
-        <v>54762300</v>
+        <v>56824300</v>
       </c>
       <c r="F72" s="3">
-        <v>53299400</v>
+        <v>55306300</v>
       </c>
       <c r="G72" s="3">
-        <v>50848700</v>
+        <v>52763400</v>
       </c>
       <c r="H72" s="3">
-        <v>48920500</v>
+        <v>50762500</v>
       </c>
       <c r="I72" s="3">
-        <v>48763600</v>
+        <v>50599700</v>
       </c>
       <c r="J72" s="3">
-        <v>47839300</v>
+        <v>49640600</v>
       </c>
       <c r="K72" s="3">
         <v>48454500</v>
@@ -3065,25 +3065,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>62728300</v>
+        <v>65090200</v>
       </c>
       <c r="E76" s="3">
-        <v>60304000</v>
+        <v>62574700</v>
       </c>
       <c r="F76" s="3">
-        <v>58770600</v>
+        <v>60982100</v>
       </c>
       <c r="G76" s="3">
-        <v>55423200</v>
+        <v>57510100</v>
       </c>
       <c r="H76" s="3">
-        <v>53181300</v>
+        <v>55183800</v>
       </c>
       <c r="I76" s="3">
-        <v>53863300</v>
+        <v>55891500</v>
       </c>
       <c r="J76" s="3">
-        <v>53516600</v>
+        <v>55531700</v>
       </c>
       <c r="K76" s="3">
         <v>53227300</v>
@@ -3184,25 +3184,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4309600</v>
+        <v>4471900</v>
       </c>
       <c r="E81" s="3">
-        <v>4234200</v>
+        <v>4398700</v>
       </c>
       <c r="F81" s="3">
-        <v>3806600</v>
+        <v>3950000</v>
       </c>
       <c r="G81" s="3">
-        <v>3565800</v>
+        <v>3700000</v>
       </c>
       <c r="H81" s="3">
-        <v>1179400</v>
+        <v>1223900</v>
       </c>
       <c r="I81" s="3">
-        <v>2274400</v>
+        <v>2360000</v>
       </c>
       <c r="J81" s="3">
-        <v>1171700</v>
+        <v>1215900</v>
       </c>
       <c r="K81" s="3">
         <v>-1109800</v>
@@ -3466,25 +3466,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9171600</v>
+        <v>9516900</v>
       </c>
       <c r="E89" s="3">
-        <v>8116400</v>
+        <v>8422000</v>
       </c>
       <c r="F89" s="3">
-        <v>9236200</v>
+        <v>9584000</v>
       </c>
       <c r="G89" s="3">
-        <v>8174500</v>
+        <v>8482300</v>
       </c>
       <c r="H89" s="3">
-        <v>6422300</v>
+        <v>6664200</v>
       </c>
       <c r="I89" s="3">
-        <v>6836600</v>
+        <v>7094000</v>
       </c>
       <c r="J89" s="3">
-        <v>5645600</v>
+        <v>5858100</v>
       </c>
       <c r="K89" s="3">
         <v>4666800</v>
@@ -3634,25 +3634,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1972600</v>
+        <v>-2046900</v>
       </c>
       <c r="E94" s="3">
-        <v>-7468700</v>
+        <v>-7749900</v>
       </c>
       <c r="F94" s="3">
-        <v>-6808900</v>
+        <v>-7065300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6467800</v>
+        <v>-6711400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2704200</v>
+        <v>-2806000</v>
       </c>
       <c r="I94" s="3">
-        <v>-6310800</v>
+        <v>-6548400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3151100</v>
+        <v>-3269700</v>
       </c>
       <c r="K94" s="3">
         <v>-780400</v>
@@ -3840,25 +3840,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4811400</v>
+        <v>-4992600</v>
       </c>
       <c r="E100" s="3">
-        <v>-463800</v>
+        <v>-481300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3578800</v>
+        <v>-3713500</v>
       </c>
       <c r="G100" s="3">
-        <v>-215300</v>
+        <v>-223400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3912200</v>
+        <v>-4059500</v>
       </c>
       <c r="I100" s="3">
-        <v>-464500</v>
+        <v>-482000</v>
       </c>
       <c r="J100" s="3">
-        <v>-4498300</v>
+        <v>-4667700</v>
       </c>
       <c r="K100" s="3">
         <v>-1592600</v>
@@ -3878,25 +3878,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>46300</v>
+        <v>48100</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G101" s="3">
-        <v>35300</v>
+        <v>36600</v>
       </c>
       <c r="H101" s="3">
-        <v>-14100</v>
+        <v>-14700</v>
       </c>
       <c r="I101" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="J101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K101" s="3">
         <v>24700</v>
@@ -3916,25 +3916,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2433900</v>
+        <v>2525500</v>
       </c>
       <c r="E102" s="3">
-        <v>181100</v>
+        <v>187900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1240300</v>
+        <v>-1287000</v>
       </c>
       <c r="G102" s="3">
-        <v>1526700</v>
+        <v>1584200</v>
       </c>
       <c r="H102" s="3">
-        <v>-208100</v>
+        <v>-216000</v>
       </c>
       <c r="I102" s="3">
-        <v>45300</v>
+        <v>47100</v>
       </c>
       <c r="J102" s="3">
-        <v>-2000200</v>
+        <v>-2075500</v>
       </c>
       <c r="K102" s="3">
         <v>2318500</v>

--- a/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,193 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18054800</v>
+        <v>11342100</v>
       </c>
       <c r="E8" s="3">
-        <v>15874700</v>
+        <v>18911400</v>
       </c>
       <c r="F8" s="3">
-        <v>17727100</v>
+        <v>16627800</v>
       </c>
       <c r="G8" s="3">
-        <v>15343400</v>
+        <v>18568100</v>
       </c>
       <c r="H8" s="3">
-        <v>13655700</v>
+        <v>16071300</v>
       </c>
       <c r="I8" s="3">
-        <v>13413700</v>
+        <v>14303500</v>
       </c>
       <c r="J8" s="3">
+        <v>14050100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11568700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9589100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12147100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13295900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19754300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4579200</v>
+        <v>2677900</v>
       </c>
       <c r="E9" s="3">
-        <v>3374700</v>
+        <v>4796500</v>
       </c>
       <c r="F9" s="3">
-        <v>5245400</v>
+        <v>3534800</v>
       </c>
       <c r="G9" s="3">
-        <v>3547500</v>
+        <v>5494300</v>
       </c>
       <c r="H9" s="3">
-        <v>3942000</v>
+        <v>3715800</v>
       </c>
       <c r="I9" s="3">
-        <v>3607100</v>
+        <v>4129000</v>
       </c>
       <c r="J9" s="3">
+        <v>3778200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3123800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2972900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3569900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3594000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7711700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>13475600</v>
+        <v>8664100</v>
       </c>
       <c r="E10" s="3">
-        <v>12499900</v>
+        <v>14114900</v>
       </c>
       <c r="F10" s="3">
-        <v>12481600</v>
+        <v>13093000</v>
       </c>
       <c r="G10" s="3">
-        <v>11795900</v>
+        <v>13073800</v>
       </c>
       <c r="H10" s="3">
-        <v>9713700</v>
+        <v>12355500</v>
       </c>
       <c r="I10" s="3">
-        <v>9806700</v>
+        <v>10174500</v>
       </c>
       <c r="J10" s="3">
+        <v>10271900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8445000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6616100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8577200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9701900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12042600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>886500</v>
+        <v>389400</v>
       </c>
       <c r="E12" s="3">
-        <v>908800</v>
+        <v>928500</v>
       </c>
       <c r="F12" s="3">
-        <v>1579400</v>
+        <v>952000</v>
       </c>
       <c r="G12" s="3">
-        <v>328200</v>
+        <v>1654300</v>
       </c>
       <c r="H12" s="3">
-        <v>611100</v>
+        <v>343800</v>
       </c>
       <c r="I12" s="3">
-        <v>388200</v>
+        <v>640100</v>
       </c>
       <c r="J12" s="3">
+        <v>406600</v>
+      </c>
+      <c r="K12" s="3">
         <v>572200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>490600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>804200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>665000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>331400</v>
+        <v>476600</v>
       </c>
       <c r="E14" s="3">
-        <v>-27200</v>
+        <v>347100</v>
       </c>
       <c r="F14" s="3">
-        <v>73600</v>
+        <v>-28400</v>
       </c>
       <c r="G14" s="3">
-        <v>23100</v>
+        <v>77100</v>
       </c>
       <c r="H14" s="3">
-        <v>1281700</v>
+        <v>24200</v>
       </c>
       <c r="I14" s="3">
-        <v>44300</v>
+        <v>1342500</v>
       </c>
       <c r="J14" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K14" s="3">
         <v>263200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1486300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>202000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>205500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>599200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4546700</v>
+        <v>4002100</v>
       </c>
       <c r="E15" s="3">
-        <v>3851600</v>
+        <v>4762400</v>
       </c>
       <c r="F15" s="3">
-        <v>3429900</v>
+        <v>4034400</v>
       </c>
       <c r="G15" s="3">
-        <v>3953300</v>
+        <v>3592600</v>
       </c>
       <c r="H15" s="3">
-        <v>4274600</v>
+        <v>4140900</v>
       </c>
       <c r="I15" s="3">
-        <v>4621800</v>
+        <v>4477300</v>
       </c>
       <c r="J15" s="3">
+        <v>4841100</v>
+      </c>
+      <c r="K15" s="3">
         <v>4905600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5040300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5444000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5455100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4409400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12117100</v>
+        <v>8972200</v>
       </c>
       <c r="E17" s="3">
-        <v>9570200</v>
+        <v>12692000</v>
       </c>
       <c r="F17" s="3">
-        <v>12073400</v>
+        <v>10024300</v>
       </c>
       <c r="G17" s="3">
-        <v>9354400</v>
+        <v>12646200</v>
       </c>
       <c r="H17" s="3">
-        <v>11482300</v>
+        <v>9798200</v>
       </c>
       <c r="I17" s="3">
-        <v>10206300</v>
+        <v>12027100</v>
       </c>
       <c r="J17" s="3">
+        <v>10690500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10351100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11138100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11585800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11266500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15032800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5937700</v>
+        <v>2369900</v>
       </c>
       <c r="E18" s="3">
-        <v>6304400</v>
+        <v>6219400</v>
       </c>
       <c r="F18" s="3">
-        <v>5653700</v>
+        <v>6603500</v>
       </c>
       <c r="G18" s="3">
-        <v>5989000</v>
+        <v>5921900</v>
       </c>
       <c r="H18" s="3">
-        <v>2173400</v>
+        <v>6273100</v>
       </c>
       <c r="I18" s="3">
-        <v>3207400</v>
+        <v>2276500</v>
       </c>
       <c r="J18" s="3">
+        <v>3359600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1217600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1549000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>561300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2029400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4721500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1112,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>104900</v>
+        <v>-96300</v>
       </c>
       <c r="E20" s="3">
-        <v>98000</v>
+        <v>109800</v>
       </c>
       <c r="F20" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="G20" s="3">
-        <v>-830900</v>
+        <v>108200</v>
       </c>
       <c r="H20" s="3">
-        <v>-18000</v>
+        <v>-870300</v>
       </c>
       <c r="I20" s="3">
-        <v>-82600</v>
+        <v>-18900</v>
       </c>
       <c r="J20" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-292200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-122100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-126900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6756400</v>
+        <v>6275700</v>
       </c>
       <c r="E21" s="3">
-        <v>10235400</v>
+        <v>7057300</v>
       </c>
       <c r="F21" s="3">
-        <v>5233500</v>
+        <v>10740600</v>
       </c>
       <c r="G21" s="3">
-        <v>9111400</v>
+        <v>5481800</v>
       </c>
       <c r="H21" s="3">
-        <v>1808100</v>
+        <v>9543700</v>
       </c>
       <c r="I21" s="3">
-        <v>7746600</v>
+        <v>1893900</v>
       </c>
       <c r="J21" s="3">
+        <v>8114100</v>
+      </c>
+      <c r="K21" s="3">
         <v>729200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3369200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>628700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7357600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5501800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,87 +1261,96 @@
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6042600</v>
+        <v>2273600</v>
       </c>
       <c r="E23" s="3">
-        <v>6402500</v>
+        <v>6329300</v>
       </c>
       <c r="F23" s="3">
-        <v>5756900</v>
+        <v>6706200</v>
       </c>
       <c r="G23" s="3">
-        <v>5158100</v>
+        <v>6030000</v>
       </c>
       <c r="H23" s="3">
-        <v>2155400</v>
+        <v>5402800</v>
       </c>
       <c r="I23" s="3">
-        <v>3124800</v>
+        <v>2257600</v>
       </c>
       <c r="J23" s="3">
+        <v>3273000</v>
+      </c>
+      <c r="K23" s="3">
         <v>925400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1671100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>639800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1902500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4925100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1570700</v>
+        <v>694100</v>
       </c>
       <c r="E24" s="3">
-        <v>2003700</v>
+        <v>1645200</v>
       </c>
       <c r="F24" s="3">
-        <v>1807000</v>
+        <v>2098800</v>
       </c>
       <c r="G24" s="3">
-        <v>1458100</v>
+        <v>1892700</v>
       </c>
       <c r="H24" s="3">
-        <v>931500</v>
+        <v>1527300</v>
       </c>
       <c r="I24" s="3">
-        <v>764800</v>
+        <v>975700</v>
       </c>
       <c r="J24" s="3">
+        <v>801100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-290500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-561300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-178400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-284100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1055800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4471900</v>
+        <v>1579500</v>
       </c>
       <c r="E26" s="3">
-        <v>4398700</v>
+        <v>4684100</v>
       </c>
       <c r="F26" s="3">
-        <v>3950000</v>
+        <v>4607400</v>
       </c>
       <c r="G26" s="3">
-        <v>3700000</v>
+        <v>4137400</v>
       </c>
       <c r="H26" s="3">
-        <v>1223900</v>
+        <v>3875600</v>
       </c>
       <c r="I26" s="3">
-        <v>2360000</v>
+        <v>1281900</v>
       </c>
       <c r="J26" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1215900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>818200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2186500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4471900</v>
+        <v>1579500</v>
       </c>
       <c r="E27" s="3">
-        <v>4398700</v>
+        <v>4684100</v>
       </c>
       <c r="F27" s="3">
-        <v>3950000</v>
+        <v>4607400</v>
       </c>
       <c r="G27" s="3">
-        <v>3700000</v>
+        <v>4137400</v>
       </c>
       <c r="H27" s="3">
-        <v>1223900</v>
+        <v>3875600</v>
       </c>
       <c r="I27" s="3">
-        <v>2360000</v>
+        <v>1281900</v>
       </c>
       <c r="J27" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1215900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>818200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2186500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-104900</v>
+        <v>96300</v>
       </c>
       <c r="E32" s="3">
-        <v>-98000</v>
+        <v>-109800</v>
       </c>
       <c r="F32" s="3">
-        <v>-103300</v>
+        <v>-102700</v>
       </c>
       <c r="G32" s="3">
-        <v>830900</v>
+        <v>-108200</v>
       </c>
       <c r="H32" s="3">
-        <v>18000</v>
+        <v>870300</v>
       </c>
       <c r="I32" s="3">
-        <v>82600</v>
+        <v>18900</v>
       </c>
       <c r="J32" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K32" s="3">
         <v>292200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>122100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>126900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-216000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4471900</v>
+        <v>1579500</v>
       </c>
       <c r="E33" s="3">
-        <v>4398700</v>
+        <v>4684100</v>
       </c>
       <c r="F33" s="3">
-        <v>3950000</v>
+        <v>4607400</v>
       </c>
       <c r="G33" s="3">
-        <v>3700000</v>
+        <v>4137400</v>
       </c>
       <c r="H33" s="3">
-        <v>1223900</v>
+        <v>3875600</v>
       </c>
       <c r="I33" s="3">
-        <v>2360000</v>
+        <v>1281900</v>
       </c>
       <c r="J33" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1215900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>818200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2186500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4471900</v>
+        <v>1579500</v>
       </c>
       <c r="E35" s="3">
-        <v>4398700</v>
+        <v>4684100</v>
       </c>
       <c r="F35" s="3">
-        <v>3950000</v>
+        <v>4607400</v>
       </c>
       <c r="G35" s="3">
-        <v>3700000</v>
+        <v>4137400</v>
       </c>
       <c r="H35" s="3">
-        <v>1223900</v>
+        <v>3875600</v>
       </c>
       <c r="I35" s="3">
-        <v>2360000</v>
+        <v>1281900</v>
       </c>
       <c r="J35" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1215900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>818200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2186500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,350 +1879,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4891200</v>
+        <v>4477800</v>
       </c>
       <c r="E41" s="3">
-        <v>2283900</v>
+        <v>5123200</v>
       </c>
       <c r="F41" s="3">
-        <v>2177700</v>
+        <v>2392200</v>
       </c>
       <c r="G41" s="3">
-        <v>3410000</v>
+        <v>2281000</v>
       </c>
       <c r="H41" s="3">
-        <v>1825800</v>
+        <v>3571800</v>
       </c>
       <c r="I41" s="3">
-        <v>2041800</v>
+        <v>1912500</v>
       </c>
       <c r="J41" s="3">
+        <v>2138700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1994700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4021200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1761200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2655200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2169500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19078600</v>
+        <v>19452500</v>
       </c>
       <c r="E42" s="3">
-        <v>24364500</v>
+        <v>19983700</v>
       </c>
       <c r="F42" s="3">
-        <v>20193200</v>
+        <v>25520400</v>
       </c>
       <c r="G42" s="3">
-        <v>17055500</v>
+        <v>21151200</v>
       </c>
       <c r="H42" s="3">
-        <v>13032600</v>
+        <v>17864700</v>
       </c>
       <c r="I42" s="3">
-        <v>13787600</v>
+        <v>13650900</v>
       </c>
       <c r="J42" s="3">
+        <v>14441700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10127500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10219900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13331700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13438100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11178500</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3600800</v>
+        <v>2350700</v>
       </c>
       <c r="E43" s="3">
-        <v>3418900</v>
+        <v>3771700</v>
       </c>
       <c r="F43" s="3">
-        <v>3192000</v>
+        <v>3581100</v>
       </c>
       <c r="G43" s="3">
-        <v>3644800</v>
+        <v>3343400</v>
       </c>
       <c r="H43" s="3">
-        <v>3018900</v>
+        <v>3817800</v>
       </c>
       <c r="I43" s="3">
-        <v>3265600</v>
+        <v>3162100</v>
       </c>
       <c r="J43" s="3">
+        <v>3420600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3382300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3324000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3239600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3675700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8630000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>917000</v>
+        <v>975200</v>
       </c>
       <c r="E44" s="3">
-        <v>982000</v>
+        <v>960500</v>
       </c>
       <c r="F44" s="3">
-        <v>850000</v>
+        <v>1028600</v>
       </c>
       <c r="G44" s="3">
-        <v>1095200</v>
+        <v>890400</v>
       </c>
       <c r="H44" s="3">
-        <v>1068000</v>
+        <v>1147100</v>
       </c>
       <c r="I44" s="3">
-        <v>1245500</v>
+        <v>1118700</v>
       </c>
       <c r="J44" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1264800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1436200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1374700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1569400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3085400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1421800</v>
+        <v>1477700</v>
       </c>
       <c r="E45" s="3">
-        <v>1463800</v>
+        <v>1489300</v>
       </c>
       <c r="F45" s="3">
-        <v>1347900</v>
+        <v>1533200</v>
       </c>
       <c r="G45" s="3">
-        <v>1137300</v>
+        <v>1411800</v>
       </c>
       <c r="H45" s="3">
-        <v>1218000</v>
+        <v>1191300</v>
       </c>
       <c r="I45" s="3">
-        <v>913200</v>
+        <v>1275800</v>
       </c>
       <c r="J45" s="3">
+        <v>956500</v>
+      </c>
+      <c r="K45" s="3">
         <v>955300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>937100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1101500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1122300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1290800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29909400</v>
+        <v>28733900</v>
       </c>
       <c r="E46" s="3">
-        <v>32513100</v>
+        <v>31328400</v>
       </c>
       <c r="F46" s="3">
-        <v>27760900</v>
+        <v>34055600</v>
       </c>
       <c r="G46" s="3">
-        <v>26342800</v>
+        <v>29077900</v>
       </c>
       <c r="H46" s="3">
-        <v>20163400</v>
+        <v>27592600</v>
       </c>
       <c r="I46" s="3">
-        <v>21253700</v>
+        <v>21120000</v>
       </c>
       <c r="J46" s="3">
+        <v>22262000</v>
+      </c>
+      <c r="K46" s="3">
         <v>17724600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19938400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20808700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22460700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20463200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7266400</v>
+        <v>7669300</v>
       </c>
       <c r="E47" s="3">
-        <v>4030000</v>
+        <v>7611200</v>
       </c>
       <c r="F47" s="3">
-        <v>4177800</v>
+        <v>4221200</v>
       </c>
       <c r="G47" s="3">
-        <v>3958800</v>
+        <v>4376000</v>
       </c>
       <c r="H47" s="3">
-        <v>4747000</v>
+        <v>4146600</v>
       </c>
       <c r="I47" s="3">
-        <v>4780700</v>
+        <v>4972200</v>
       </c>
       <c r="J47" s="3">
+        <v>5007500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4975700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4716500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4776400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4559700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4448300</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>65314700</v>
+        <v>69309500</v>
       </c>
       <c r="E48" s="3">
-        <v>60947500</v>
+        <v>68413400</v>
       </c>
       <c r="F48" s="3">
-        <v>60035600</v>
+        <v>63839000</v>
       </c>
       <c r="G48" s="3">
-        <v>56916400</v>
+        <v>62883800</v>
       </c>
       <c r="H48" s="3">
-        <v>57491900</v>
+        <v>59616600</v>
       </c>
       <c r="I48" s="3">
-        <v>60300700</v>
+        <v>60219400</v>
       </c>
       <c r="J48" s="3">
+        <v>63161400</v>
+      </c>
+      <c r="K48" s="3">
         <v>62806900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62075800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>67399100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67875000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134732800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2368100</v>
+        <v>2490700</v>
       </c>
       <c r="E49" s="3">
-        <v>2281000</v>
+        <v>2480500</v>
       </c>
       <c r="F49" s="3">
-        <v>2334300</v>
+        <v>2389200</v>
       </c>
       <c r="G49" s="3">
-        <v>2191700</v>
+        <v>2445000</v>
       </c>
       <c r="H49" s="3">
-        <v>2188600</v>
+        <v>2295600</v>
       </c>
       <c r="I49" s="3">
-        <v>2312200</v>
+        <v>2292400</v>
       </c>
       <c r="J49" s="3">
+        <v>2421900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2417200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2348200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2437300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2353000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4796600</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5186600</v>
+        <v>5888700</v>
       </c>
       <c r="E52" s="3">
-        <v>4872300</v>
+        <v>5432700</v>
       </c>
       <c r="F52" s="3">
-        <v>5374500</v>
+        <v>5103500</v>
       </c>
       <c r="G52" s="3">
-        <v>5421600</v>
+        <v>5629500</v>
       </c>
       <c r="H52" s="3">
-        <v>5047800</v>
+        <v>5678800</v>
       </c>
       <c r="I52" s="3">
-        <v>5037000</v>
+        <v>5287200</v>
       </c>
       <c r="J52" s="3">
+        <v>5276000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4686000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3867500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3176400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2459200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1723500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110045300</v>
+        <v>114092100</v>
       </c>
       <c r="E54" s="3">
-        <v>104643900</v>
+        <v>115266000</v>
       </c>
       <c r="F54" s="3">
-        <v>99683100</v>
+        <v>109608400</v>
       </c>
       <c r="G54" s="3">
-        <v>94831300</v>
+        <v>104412300</v>
       </c>
       <c r="H54" s="3">
-        <v>89638700</v>
+        <v>99330300</v>
       </c>
       <c r="I54" s="3">
-        <v>93684200</v>
+        <v>93891400</v>
       </c>
       <c r="J54" s="3">
+        <v>98128800</v>
+      </c>
+      <c r="K54" s="3">
         <v>92610400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92946300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98598000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>99707600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96399600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5830400</v>
+        <v>6189600</v>
       </c>
       <c r="E57" s="3">
-        <v>5464100</v>
+        <v>6107000</v>
       </c>
       <c r="F57" s="3">
-        <v>4837200</v>
+        <v>5723400</v>
       </c>
       <c r="G57" s="3">
-        <v>3966800</v>
+        <v>5066700</v>
       </c>
       <c r="H57" s="3">
-        <v>3879500</v>
+        <v>4155000</v>
       </c>
       <c r="I57" s="3">
-        <v>3959100</v>
+        <v>4063600</v>
       </c>
       <c r="J57" s="3">
+        <v>4146900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3680900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3857000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6848800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8883400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9262600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2035400</v>
+        <v>1844200</v>
       </c>
       <c r="E58" s="3">
-        <v>2960800</v>
+        <v>2132000</v>
       </c>
       <c r="F58" s="3">
-        <v>1305800</v>
+        <v>3101300</v>
       </c>
       <c r="G58" s="3">
-        <v>697700</v>
+        <v>1367700</v>
       </c>
       <c r="H58" s="3">
-        <v>2017500</v>
+        <v>730800</v>
       </c>
       <c r="I58" s="3">
-        <v>3419100</v>
+        <v>2113300</v>
       </c>
       <c r="J58" s="3">
+        <v>3581400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2857800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4886900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4984300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3693800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8451800</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5386300</v>
+        <v>6350400</v>
       </c>
       <c r="E59" s="3">
-        <v>6277900</v>
+        <v>5641800</v>
       </c>
       <c r="F59" s="3">
-        <v>4626900</v>
+        <v>6575700</v>
       </c>
       <c r="G59" s="3">
-        <v>5346500</v>
+        <v>4846400</v>
       </c>
       <c r="H59" s="3">
-        <v>3021800</v>
+        <v>5600100</v>
       </c>
       <c r="I59" s="3">
-        <v>4307500</v>
+        <v>3165200</v>
       </c>
       <c r="J59" s="3">
+        <v>4511900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3204800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4285600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>689700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1235700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4984600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13252100</v>
+        <v>14384200</v>
       </c>
       <c r="E60" s="3">
-        <v>14702800</v>
+        <v>13880800</v>
       </c>
       <c r="F60" s="3">
-        <v>10769800</v>
+        <v>15400300</v>
       </c>
       <c r="G60" s="3">
-        <v>10011000</v>
+        <v>11280800</v>
       </c>
       <c r="H60" s="3">
-        <v>8918900</v>
+        <v>10485900</v>
       </c>
       <c r="I60" s="3">
-        <v>11685800</v>
+        <v>9342000</v>
       </c>
       <c r="J60" s="3">
+        <v>12240200</v>
+      </c>
+      <c r="K60" s="3">
         <v>9743500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13029600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12522800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13812800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15051700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20799000</v>
+        <v>20606900</v>
       </c>
       <c r="E61" s="3">
-        <v>18666800</v>
+        <v>21785700</v>
       </c>
       <c r="F61" s="3">
-        <v>19385200</v>
+        <v>19552400</v>
       </c>
       <c r="G61" s="3">
-        <v>18802800</v>
+        <v>20304800</v>
       </c>
       <c r="H61" s="3">
-        <v>17189100</v>
+        <v>19694800</v>
       </c>
       <c r="I61" s="3">
-        <v>17805900</v>
+        <v>18004600</v>
       </c>
       <c r="J61" s="3">
+        <v>18650700</v>
+      </c>
+      <c r="K61" s="3">
         <v>18995800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17924500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19450600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18337400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15325800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10898300</v>
+        <v>11899400</v>
       </c>
       <c r="E62" s="3">
-        <v>8699600</v>
+        <v>11415400</v>
       </c>
       <c r="F62" s="3">
-        <v>8544600</v>
+        <v>9112300</v>
       </c>
       <c r="G62" s="3">
-        <v>8507400</v>
+        <v>8950000</v>
       </c>
       <c r="H62" s="3">
-        <v>8346900</v>
+        <v>8911000</v>
       </c>
       <c r="I62" s="3">
-        <v>8301100</v>
+        <v>8742900</v>
       </c>
       <c r="J62" s="3">
+        <v>8694900</v>
+      </c>
+      <c r="K62" s="3">
         <v>8339400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8764900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9332200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10720700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10815300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44955100</v>
+        <v>46903900</v>
       </c>
       <c r="E66" s="3">
-        <v>42069200</v>
+        <v>47087800</v>
       </c>
       <c r="F66" s="3">
-        <v>38701000</v>
+        <v>44065100</v>
       </c>
       <c r="G66" s="3">
-        <v>37321200</v>
+        <v>40537100</v>
       </c>
       <c r="H66" s="3">
-        <v>34454900</v>
+        <v>39091800</v>
       </c>
       <c r="I66" s="3">
-        <v>37792800</v>
+        <v>36089600</v>
       </c>
       <c r="J66" s="3">
+        <v>39585700</v>
+      </c>
+      <c r="K66" s="3">
         <v>37078700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39719000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41305600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42870900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41192900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59000800</v>
+        <v>60397100</v>
       </c>
       <c r="E72" s="3">
-        <v>56824300</v>
+        <v>61800000</v>
       </c>
       <c r="F72" s="3">
-        <v>55306300</v>
+        <v>59520100</v>
       </c>
       <c r="G72" s="3">
-        <v>52763400</v>
+        <v>57930200</v>
       </c>
       <c r="H72" s="3">
-        <v>50762500</v>
+        <v>55266600</v>
       </c>
       <c r="I72" s="3">
-        <v>50599700</v>
+        <v>53170800</v>
       </c>
       <c r="J72" s="3">
+        <v>53000300</v>
+      </c>
+      <c r="K72" s="3">
         <v>49640600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48454500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52819000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53565800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100924900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65090200</v>
+        <v>67188200</v>
       </c>
       <c r="E76" s="3">
-        <v>62574700</v>
+        <v>68178200</v>
       </c>
       <c r="F76" s="3">
-        <v>60982100</v>
+        <v>65543300</v>
       </c>
       <c r="G76" s="3">
-        <v>57510100</v>
+        <v>63875200</v>
       </c>
       <c r="H76" s="3">
-        <v>55183800</v>
+        <v>60238500</v>
       </c>
       <c r="I76" s="3">
-        <v>55891500</v>
+        <v>57801800</v>
       </c>
       <c r="J76" s="3">
+        <v>58543100</v>
+      </c>
+      <c r="K76" s="3">
         <v>55531700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53227300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57292300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56836700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55206700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4471900</v>
+        <v>1579500</v>
       </c>
       <c r="E81" s="3">
-        <v>4398700</v>
+        <v>4684100</v>
       </c>
       <c r="F81" s="3">
-        <v>3950000</v>
+        <v>4607400</v>
       </c>
       <c r="G81" s="3">
-        <v>3700000</v>
+        <v>4137400</v>
       </c>
       <c r="H81" s="3">
-        <v>1223900</v>
+        <v>3875600</v>
       </c>
       <c r="I81" s="3">
-        <v>2360000</v>
+        <v>1281900</v>
       </c>
       <c r="J81" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1215900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1109800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>818200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2186500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9516900</v>
+        <v>5204500</v>
       </c>
       <c r="E89" s="3">
-        <v>8422000</v>
+        <v>9939500</v>
       </c>
       <c r="F89" s="3">
-        <v>9584000</v>
+        <v>8850500</v>
       </c>
       <c r="G89" s="3">
-        <v>8482300</v>
+        <v>10038700</v>
       </c>
       <c r="H89" s="3">
-        <v>6664200</v>
+        <v>8884700</v>
       </c>
       <c r="I89" s="3">
-        <v>7094000</v>
+        <v>6980300</v>
       </c>
       <c r="J89" s="3">
+        <v>7430600</v>
+      </c>
+      <c r="K89" s="3">
         <v>5858100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4666800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7049300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4837600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8421300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3552,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2046900</v>
+        <v>-3534700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7749900</v>
+        <v>-2144000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7065300</v>
+        <v>-8117600</v>
       </c>
       <c r="G94" s="3">
-        <v>-6711400</v>
+        <v>-7400500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2806000</v>
+        <v>-7029800</v>
       </c>
       <c r="I94" s="3">
-        <v>-6548400</v>
+        <v>-2939100</v>
       </c>
       <c r="J94" s="3">
+        <v>-6859100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3269700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-780400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5361600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5991000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4935500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4992600</v>
+        <v>-2362100</v>
       </c>
       <c r="E100" s="3">
-        <v>-481300</v>
+        <v>-5229400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3713500</v>
+        <v>-504100</v>
       </c>
       <c r="G100" s="3">
-        <v>-223400</v>
+        <v>-3889700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4059500</v>
+        <v>-234000</v>
       </c>
       <c r="I100" s="3">
-        <v>-482000</v>
+        <v>-4252100</v>
       </c>
       <c r="J100" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4667700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1592600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2635000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1612000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8373700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48100</v>
+        <v>46900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>50400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6400</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>36600</v>
+        <v>-6700</v>
       </c>
       <c r="H101" s="3">
-        <v>-14700</v>
+        <v>38300</v>
       </c>
       <c r="I101" s="3">
-        <v>-16600</v>
+        <v>-15400</v>
       </c>
       <c r="J101" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>53300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2525500</v>
+        <v>-645400</v>
       </c>
       <c r="E102" s="3">
-        <v>187900</v>
+        <v>2645400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1287000</v>
+        <v>196800</v>
       </c>
       <c r="G102" s="3">
-        <v>1584200</v>
+        <v>-1348100</v>
       </c>
       <c r="H102" s="3">
-        <v>-216000</v>
+        <v>1659300</v>
       </c>
       <c r="I102" s="3">
-        <v>47100</v>
+        <v>-226200</v>
       </c>
       <c r="J102" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2075500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2318500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-894000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>441200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4962900</v>
       </c>
     </row>
